--- a/KnowledgeMap/数学/高等数学/note/30讲/第六讲题目总结.xlsx
+++ b/KnowledgeMap/数学/高等数学/note/30讲/第六讲题目总结.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="15280" activeTab="1"/>
+    <workbookView windowWidth="28060" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>题目</t>
   </si>
@@ -56,6 +56,9 @@
     <t>积分中值定理</t>
   </si>
   <si>
+    <t>构造辅助函数</t>
+  </si>
+  <si>
     <t>例1</t>
   </si>
   <si>
@@ -80,14 +83,112 @@
     <t>例6</t>
   </si>
   <si>
+    <t>两次罗尔</t>
+  </si>
+  <si>
     <t>例7</t>
   </si>
   <si>
+    <r>
+      <t>证明导数零点定理（只要函数可导，f'(a)f'(b)&lt;0，则f'(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)=0，a&lt;λ&lt;b）</t>
+    </r>
+  </si>
+  <si>
     <t>例8</t>
   </si>
   <si>
-    <r>
-      <t>证明导数零点定理（只要函数可导，f'(a)f'(b)&lt;0，则f'(</t>
+    <t>例9</t>
+  </si>
+  <si>
+    <t>例10</t>
+  </si>
+  <si>
+    <t>反推的思想</t>
+  </si>
+  <si>
+    <t>例11</t>
+  </si>
+  <si>
+    <t>例12</t>
+  </si>
+  <si>
+    <t>证明费马定理</t>
+  </si>
+  <si>
+    <t>习1</t>
+  </si>
+  <si>
+    <t>习2</t>
+  </si>
+  <si>
+    <t>习3</t>
+  </si>
+  <si>
+    <t>习4</t>
+  </si>
+  <si>
+    <t>习5</t>
+  </si>
+  <si>
+    <t>习6</t>
+  </si>
+  <si>
+    <t>三百1</t>
+  </si>
+  <si>
+    <t>三百2</t>
+  </si>
+  <si>
+    <t>三百3</t>
+  </si>
+  <si>
+    <t>三百4</t>
+  </si>
+  <si>
+    <t>三百5</t>
+  </si>
+  <si>
+    <t>三百6</t>
+  </si>
+  <si>
+    <t>定理</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>线索</t>
+  </si>
+  <si>
+    <t>闭区间连续，函数有最大最小值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭区间连续，m≤µ≤M，存在f(</t>
     </r>
     <r>
       <rPr>
@@ -102,77 +203,24 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)=0，a&lt;λ&lt;b）</t>
-    </r>
-  </si>
-  <si>
-    <t>例9</t>
-  </si>
-  <si>
-    <t>例10</t>
-  </si>
-  <si>
-    <t>例11</t>
-  </si>
-  <si>
-    <t>例12</t>
-  </si>
-  <si>
-    <t>习1</t>
-  </si>
-  <si>
-    <t>习2</t>
-  </si>
-  <si>
-    <t>习3</t>
-  </si>
-  <si>
-    <t>习4</t>
-  </si>
-  <si>
-    <t>习5</t>
-  </si>
-  <si>
-    <t>习6</t>
-  </si>
-  <si>
-    <t>三百1</t>
-  </si>
-  <si>
-    <t>三百2</t>
-  </si>
-  <si>
-    <t>三百3</t>
-  </si>
-  <si>
-    <t>三百4</t>
-  </si>
-  <si>
-    <t>三百5</t>
-  </si>
-  <si>
-    <t>三百6</t>
-  </si>
-  <si>
-    <t>证明费马定理</t>
-  </si>
-  <si>
-    <t>定理</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>线索</t>
-  </si>
-  <si>
-    <t>闭区间连续，函数有最大最小值</t>
-  </si>
-  <si>
-    <r>
-      <t>闭区间连续，m≤µ≤M，存在f(</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) = µ</t>
+    </r>
+  </si>
+  <si>
+    <t>闭区间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭区间连续，存在f(</t>
     </r>
     <r>
       <rPr>
@@ -187,17 +235,24 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) = µ</t>
-    </r>
-  </si>
-  <si>
-    <t>闭区间</t>
-  </si>
-  <si>
-    <r>
-      <t>闭区间连续，存在f(</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)=区间内n个点平均值</t>
+    </r>
+  </si>
+  <si>
+    <t>看到n个数加加加</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭区间连续，f(a)f(b)&lt;0，存在f(</t>
     </r>
     <r>
       <rPr>
@@ -212,17 +267,27 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)=区间内n个点平均值</t>
-    </r>
-  </si>
-  <si>
-    <t>看到n个数加加加</t>
-  </si>
-  <si>
-    <r>
-      <t>闭区间连续，f(a)f(b)&lt;0，存在f(</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) = 0</t>
+    </r>
+  </si>
+  <si>
+    <t>f(x0)，可导，取极值，则f'(x0) = 0</t>
+  </si>
+  <si>
+    <t>证明导数为0；区间内部最值；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭区间连续，开区间可导，f(a)=f(b)，存在f'(</t>
     </r>
     <r>
       <rPr>
@@ -237,20 +302,47 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) = 0</t>
-    </r>
-  </si>
-  <si>
-    <t>f(x0)，可导，取极值，则f'(x0) = 0</t>
-  </si>
-  <si>
-    <t>证明导数为0；区间内部最值；</t>
-  </si>
-  <si>
-    <r>
-      <t>闭区间连续，开区间可导，f(a)=f(b)，存在f'(</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)=0；端点可以为极限，可以为无穷；区间可以为无限区间（推论可以直接用）</t>
+    </r>
+  </si>
+  <si>
+    <t>证明导数为0；求端点值相同；用辅助函数</t>
+  </si>
+  <si>
+    <t>闭区间连续，开区间可导，导数控制函数</t>
+  </si>
+  <si>
+    <t>f-f；f与f'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭区间连续，开区间可导，g'(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0，(f(b)-f(a))/(g(b)-g(a)) = f'(</t>
     </r>
     <r>
       <rPr>
@@ -265,13 +357,38 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)=0</t>
-    </r>
-  </si>
-  <si>
-    <t>证明导数为0</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)/g'(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>一个抽象一个具体</t>
+  </si>
+  <si>
+    <t>∫_a^b f(x) dx -&gt; f(λ)(b-a)</t>
+  </si>
+  <si>
+    <t>∫_a^b f(x) dx = f(λ)(b-a); F(x)=∫_a^x f(t) dt</t>
   </si>
 </sst>
 </file>
@@ -279,12 +396,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,15 +410,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,31 +493,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +509,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,44 +545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -407,31 +553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +565,12 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Palatino"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -470,43 +599,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,127 +755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,24 +790,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -736,6 +847,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -766,152 +895,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,6 +1057,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,12 +1381,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1263,7 +1395,7 @@
     <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="53" spans="1:12">
+    <row r="1" s="5" customFormat="1" ht="53" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1300,13 +1432,16 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="18" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1317,10 +1452,10 @@
     </row>
     <row r="3" ht="18" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1329,141 +1464,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:13">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="53" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="53" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26" t="b">
+        <v>42</v>
+      </c>
+      <c r="K26" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L26"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1474,8 +1728,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1488,13 +1742,13 @@
   <sheetData>
     <row r="1" ht="18" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
@@ -1502,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:3">
@@ -1510,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
@@ -1521,10 +1775,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
@@ -1532,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
@@ -1540,31 +1794,43 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" ht="36" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" ht="18" spans="1:1">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:1">
@@ -1572,9 +1838,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="1:1">
+    <row r="11" ht="36" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
